--- a/PODATKI.xlsx
+++ b/PODATKI.xlsx
@@ -5760,9 +5760,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{62F291F4-AA3C-C940-9B4C-EE492612A23A}" name="Lenart" id="-647896020" dateTime="2017-03-15T16:52:53"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
